--- a/data/COMBINED_data/nike.xlsx
+++ b/data/COMBINED_data/nike.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tammy/Documents/CWRU/HPC/Predicting-Stock-Price/data/COMBINED_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF7B66-2A7B-2749-B968-7C133CF3A249}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA8D412-81AB-B64C-910B-A26778B6E49D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
   <si>
     <t>comments</t>
   </si>
@@ -839,87 +839,6 @@
   </si>
   <si>
     <t>['the high support one, and the lululemon high support energy bra, ARE AMAZING.', 'want to order', 'what one for netball?', '@Mary Earps shirt please.', '@naomiikpotokinx love these', 'What do you reccomend for taekwondo?', 'What about gymnasics', '@M let’s get haha.', 'Are these good for horse riding x ?', 'i need this my nike bra is so chunky and uncomfy and it’s too much for just the gym', 'Love the colors', 'Does nike respond?', 'Ooo prettyyyyyy', 'sa fera 60€', 'se quiser patrocinar a gente tambem aceita hahaha ', 'segue nosso perfil Nike.. fortalece ', 'top', 'Je les ai acheté c’est trop bien', 'J’ai la blanche', '@Nike', 'nike, me patrocina  precisando de look novo pra treinar ', 'J’ai la blanche elle est trop bien !!!', 'I need ', 'verdade', 'qual o nome disso?', "J'ai la jaune ", 'Adoro esses tops', 'quero', 'quero', 'Eu tenho o branco e ele maravilhoso segura tudo', 'onde compra???', 'lindos', 'hiiii', 'ameiiii', 'Hola', '2nd', 'SELL THE GK SHIRT!', 'eu a amo esse tipo', 'Cutest!) @Bertha', 'Idc i want the @Mary Earps shirt!! Pls ', 'what about for horse riding?', '@luce it’s giving Chloe Kelly', '@Berry Avenue', '@Shannon ', 'Incroyable mais chère', 'me patrocina @nike , tô falindo de tanto tênis e roupa suas que compro', '', '', '', '', '@Sttefany Maylla', '@vaidi_23', 'Tbf it is the best bra', 'The only sports bra I’ll wear/ always delivers', 'I have 4 of these', '@rub ', 'Hate this bra', 'finally the lesbian bra improved', 'this available', 'MY FRIEND BET ME 20 DOLLARS THAT YOU WONT RESPONDED TO ME JUST SAY”hi bro” PLS', 'c’est bien beau mais pas envie de payer une brassière à ce prix jpp', 'Ouai bah c’est une brassière quoi rien de spécial', "Allez hop 40€  c'est hyper cher juste pour le logo franchement", 'FOR 50 QUID ', '@Mary Earps shirt please ', 'A hey mamas essential', 'bra? no girl i need a binder', 'I want to buy but what if you have bigger ', 'why arent you selling @Mary Earps gurnsey', 'Football not soccer', '@Nike look a my recent video', 'Sponsor@haven', 'tão lindo q pena q não tenho dinheiro pra comprar ', 'svp faites des brassieres sans pads je vous en conjure', 'me deee ', 'eu tenho um só é fake', 'The new and improved Nike Swoosh Bra is here  she’s definitely an icon and now can be there for you in 3 different support types.  #swooshbra #NikeFC #nikefootball #nike #nikeswooshbra ', 'Hi', 'Hola', 'Early', '', '', '@ seventh', 'Sweetie)) @Ana', 'I love you nike', 'Sponsor@haven', 'original kofta', ' YOU CUTE? ', 'first']</t>
-  </si>
-  <si>
-    <t>['Hello, great work dear', 'Co robiƒÖ yeezy foamy w filmie Nike ', '', '', 'No T√ºrkiye', 'Nike patrocina o canal Revers√£o', '', '', '', '', '', 'Q', '', '', 'why can i see a pair of yeezy foam runners?', 'So beautiful ', '', 'VENITE A BASSANO BRESCIANO VI PREGO', 'R84', '', 'I really would want one of those that are blackand white ', 'Where was israel before 1948 ?\nWorld need to support the truth , free #palestine , free #gaza ', 'Hi', 'Nice collab with @trustforpublicland ', 'keren kalii', 'For√ßa', '', '', 'It wouldA  be a great idea', '']</t>
-  </si>
-  <si>
-    <t>['', 'Brick heck looking mufukr', 'I love the social activism here this is a great cause to use your platform for. I hope you do the same for Palestine .', '', 'Clowns', '@phil_mullas dont worry Phil, hes not', '@girlelle you sure have ', '@allard2826 Pathetic.', '@surviving_the_cut  wrong know your facts', "@liltlc1_ I'm 100% right, you get to know the facts", 'Dude looks like Robert Downey Jr.', 'Narcissist by the book', '', 'Colin Black white ', 'Browns call the browns bro', 'Embarrassing', 'You is a guy of "Colin in black and white" n', 'What about Palestine?? No more activism???', 'Shout out to the raiders changing history today . @raiders  now it‚Äôs time to make history sign kap y‚Äôall vouch for him wen the jets loss they QB .', 'Come to the bengals', 'It‚Äôs the fro for me ', '', 'Come to the browns we need you', '@bengals', 'Not him holding a football ', '', '@roiadha lagi ngapa rap', '@alexseptha ana maning kie wakaka', 'Does my content motivate you?', 'Youre r3t4rded ', '@bri.monee tryna get nto his pantalones? ', '@phil_mullas still better than your favorite qb', 'Friit P4lestin4! ', 'Cest afro', 'Grandes!', 'Go help the Seahawks', '', 'Beautiful man inside out', 'THE HOOD NEED A NEW STORY ', 'Ugli rat not even black lmfao', '', 'Good one', '']</t>
-  </si>
-  <si>
-    <t>['ÁúãËøáÊù•ÔºåÈûãÂ≠êË°£ÊúçÈÉΩÊúâ', '\n', 'it did clarify as the picture has men in it,not women', '@burgin.george oksalayo ', 'Our belief remi', '@jo._.wawatai That‚Äôs what I thought ', 'Hi', '@correcttheinternet they not sponsored by Nike tho', 'gyat', "@jo._.wawatai lol I wonder if they'd be able to play against the boks though ", '@lucyvictoria44 can they play against the boks though?', '', 'Where whs israel before 1948 ?\nThe world need to support the truth ‚Ä¶ \nFree for the childhood ‚Ä¶. Free #palestine  Free #gaza', '  YES - That‚Äôs TRUE. Because NIKE is a PERFECT COMPANY ', '@nike thank you for your incredible marketing of our incredible  @bokrugby what  a partnership #strongertogether ', '', 'Hola', 'It was disappointing that the Nike store in Paris had no merchandise for the Springboks whereas the adidas store was packed with NZ merchandise! @bokrugby choose better next time', 'So if you wanna talk about it we can talk about 20 good get', '@jo._.wawatai shut up', 'Before I ', '@lethabo_jm  you too', '@jo._.wawatai didn‚Äôt you lose the rugby World Cup final ?', '@lethabo_jm mate this is old and I could Care any less', '@jo._.wawatai close that mouth before I ', '@jo._.wawatai if you‚Äôre not careful I‚Äôll show you my special sauce', '@jo._.wawatai the jazz sauce', '', 'Nobody cares about the Blackferns, they‚Äôve never and will never win the Webb Ellis! Thank you bye! ', 'Good morning', '@jo._.wawatai uyahlanya wena ', '@hayley._.storer adidas sponsors them so go and have a cry to them', '', '', '', 'Hai shame, you‚Äôre right. It happens 4 times, that‚Äôs 1 2 3 4 \n\nDon‚Äôt be poes, be lekker my friend', '', "@jo._.wawatai yes because womens rugby isn't as advanced and funded except for in England and New Zealand mostly. Alot easier to win a world cup for new zealand women than any team in the men's side of things.", '', 'tapi,,', '', '@courtscox it‚Äôs a troll account. 2 posts, no pic, deliberately stirring']</t>
-  </si>
-  <si>
-    <t>['Hi', '@rosswayman 100 goals in a year isn‚Äôt bad', "@neerasrh put messi in women competition and he is winning all that ,put her in male competition she is not winning a trophy, the fact is women's competition will never reach male competition", "@neerasrh is that why Zaha soloed a full women team alone?, its ok Ik ur a woman but don't compare something that should never be compared to begin with", '@vedhed21 only 2 teams in history won the sextuple, and guess who won one of the sextuple? messi', '@absolute.limbs messi won the sextuple which is harder', '@sheddy_bs obv he‚Äôs gonna dribble past a woman who‚Äôs not a professional player, he would‚Äôve dribbled past you aswell bruh look at the confidence like you said something good  embarassingggg. And the comparison between male players and female players is done by you boys. Now that Aiyana has done something even messi hasn‚Äôt you wanna stop comparing men and women‚Äôs football', '', '@sheddy_bs messi in men‚Äôs competition is also winning all that so it shows how low the competition is for the men‚Äôs if he just won his eighth ballon d‚Äôor specially after being in the American League now  and she being in the women‚Äôs league is upto her level and competition so what u said doesn‚Äôt even make sense and she won all those in a year and until now no footballer had done that not even messi who won eight ballon dors. Y‚Äôall are so hurt bruh', '', "The Irish wife fed by the husband's beatings knows the truth. As long as it earns the maximum amount of tickets to nike", '@tsheringsandup it can‚Äôt be 100x more competitive when Messi‚Äôs been winning almost consecutive eight ballon d ors specially now that he‚Äôs in the American League that‚Äôs mad. The only main competition rn for men‚Äôs is haaland jude and mbappe. The women‚Äôs wc if u would‚Äôve actually saw it u would known how many new amazing players entered and played‚Ä¶the level of skills now in women‚Äôs football is insane but you have to watch it properly to know it which u don‚Äôt', '‡§Ø‡§æ‡§®‡•ã‡§Ç‡§ó‡•Å‡§™‡§Æ', '‡§è‡§ï‡•ç‡§∏', '‡§á‡§ï ‡§•‡•á ‡§®‡•ç‡§Ø‡•Ç‡§∞‡§æ‡§µ', '@neerasrh I really don‚Äôt mean any disrespect, but can you show me one time that a women‚Äôs team have beaten a men‚Äôs team? The difference in speed and strength is too much, after puberty. It‚Äôs why the leagues are separated. The women‚Äôs game is developing fast, and there are some amazingly skilled players, but let‚Äôs be real: right now a top league men‚Äôs team would win every single time, and Zlatan was exaggerating to make a point - that Manchester are not playing well right now.', '. . . ... . .. . .', '', '.', '.', 'Ur are beautiful ', 'Hola alguien quiere comprar o vender productos FUXION bebidas saludables', "Hamas didn't ask permission from the innocent civilian you dumb nigga ", '', '', 'Vamos ', 'Hhhh', 'whats dat?', 'Saniaparvin', 'tapi,,', 'Nike', '@izizinhaa  humm Let me see, beetj like u maar is goed toch.  Biiiiinha', '@pilsnerpapi_ there u go again  if only you know where civilization started  you really need education pal  not education from the media because that makes u look stupid  read a book man ', '', 'ŸÅŸÜÿ≥ŸäŸàÿ≥', 'CRAQUE', '', 'Craque @vinijr , pr√≥ximo ano ser√° o melhor do mundo pode anotar na agenda de voc√™s aqui √© Brasil Po***', '@jessiicasilva10 ', '@mchariel ', '', 'Q hace leo', 'Boss', '', '', '', '', '', 'Nosso futuro na sele√ß√£o', '', '@eu_ryann_ s√≥ apertar em tradu√ß√£o ', '@emmanuel_ervine_92 eu tbm sou', '@cold.xw o cara apagou o coment√°rio, g√™nio', '@eu_ryann_ Ann?', 'Yeah no good viny', 'I love you son', 'And his veining all the time', 'You', '', '', '', '', '', '', 'Ganhou o que?', '', '', '@nike o site est√° com propaganda enganosa, anunciando o t√™nis com um pre√ßo e ao finalizar o valor aumenta. HELP NIKE! Que coisa feia uma empresa desse tamanho fazendo uma propaganda t√£o suja.', 'Linddddddoooooooooooooo', '', '', 'Good', '', 'whats dat?', 'Vini', 'Fera', '', '', '']</t>
-  </si>
-  <si>
-    <t>['makduss??', 'ÿßÿ≤ ŸÅÿ±ÿ¥Ÿáÿß€å ŸÖÿß ŸáŸÖ ÿØ€åÿØŸÜ ⁄©ŸÜ€åÿØ', '', '', '', '', '', '#ŸÖÿ±⁄Ø_ÿ®ÿ±_ÿ¢ŸÖÿ±€å⁄©ÿß', '#ŸÖÿ±⁄Ø_ÿ®ÿ±_ÿßŸÜ⁄ØŸÑ€åÿ≥', '#ŸÖÿ±⁄Ø_ÿ®ÿ±_ÿßÿ≥ÿ±ÿß€å€åŸÑ', '', 'ÿß€åÿ±ÿßŸÜ ŸÇŸà€å', '', 'Que lindo essa chuteira', 'Le prix', 'I dont have this boots', '', '@geo7gearias you hating he earning!', 'Hey Nike me wan  airforce', 'H.m size 39', '', '', 'Just by seeing them I loved them', '@itshayotbek lol no my guy. For some who is on a 375K weekly salary and all he does is go sneaker shopping and countess apologies no one wants him in any top teams. If any one wants him then it has to be PSG no one is crazy enough to give a top contract to such players', 'ŸÖŸÜ ÿßŸÜ⁄ØŸÑ€åÿ≥ ÿ®ŸÑÿØ ŸÜ€åÿ≥ÿ™ŸÖ. ŸÑÿ∑ŸÅÿß ÿ¨Ÿàÿßÿ® ÿ®ÿØ€åŸÜ', 'Rip', 'Chuteira linda da prr', '', 'True legend ', 'whats dat?', 'Very comfortable and beautiful shoes', 'Cu√°l es el precio', 'I want one like this', 'I need homework in computer...', 'Moi crush ', '', '', ' der hat noch nie in seinem Leben was gewonnen und bekommt Million von Nike so ein Hundesohnverein F√ºr eure Kunden tut dir Nix aber f√ºr ein Hundesohn bezahlt ihr Geld so ein Egoisten brauche ich kein Geld zu geben der wird auch nie in seinem Leben was gewinnen', '', ' i‚Äôm with kids in palestine', 'Boa noite', '', '', '', 'Where‚Äôs myyyyy broski', 'so cute!', 'So cute', 'Jjjh', '@inqquru #isrealterrorist .', '', '', 'Nike', ' haben auch ein Recht auf Leben \n\n@saleh_aljafarawi', '', '', '', ' children ki ll er', 'Husbulla v my new boy', 'Limdo', 'Fofo', 'Gracinha', 'Asmei', 'Oivamiy mon', '', '', ' thanks all', 'Love ', '', '', '', 'Tallas m√°s grandes por favor @nike', '', 'Love it', 'only god and nike', 'ITS AN ISRAEL BRAND SO BE CAREFUL THEY DONT LIKE CHILDREN', '', '', 'USELESS PLAYER IN UNITED !!!!', 'Belet belet', 'Pemain cacat, star sindrom', 'apasi dih', 'Useless', 'udah naik gaji malah makin melempem ', '@calidreamin213 does your dad love you or you just having family issues?? Dude relax stop being that bitter ', 'Instead of saying that go fight for them', '@i.am__nyamande Still has nothing to do with your god being so trash ', '@jaysav8111 if was easy as that  you wouldn‚Äôt be commenting of a fake page would you??', '$', '', 'Super star', 'SHIT PLAYER', '', 'ƒê√° th√¨ ngu su·ªët ng√†y ƒëi qu·∫£ng c√°o', 'MR10 ', 'Schnell schauen bevor es gel√∂scht wird \n\n@saleh_aljafarawi', '', '', '', 'Your fifa mobile card sucks I keep losing bc of you', "@rc.carver he's verified tho", 'Slick boots ', '@nate.brooklyn I can tell all you do is look at your phone 24/7 cause you think a blue tick means anything', "@rc.carver ofcos not buh if it makes him then let him be... That's all I'm saying. He was criticizing Rash n you took it personal like he was criticizing u tf", 'All of you who have ill comments here are SICK! Bunch of heartless souls! Una go meet am for front Aje.', '', 'Masa  score goals or go back to your ex', 'Wake up Rashford ', '', 'Waste @zinricjacobs', 'Didn‚Äôt attend the funeral ', '', 'Collect blocking', '', "All this hate marcus is getting is disgusting, he cant do everything at once he's not superhuman, give the poor man a break", '@zxidy this is exactly what ive been trying to say, they need to give him a break', "y'all keep supporting my music trends kindly use my sounds ", 'Pass the ball mate', 'Stop buying Nike products', '', 'Good', '', '']</t>
-  </si>
-  <si>
-    <t>['', 'Movement is Medicine!', '', '', 'Bendiciones gente', '', '@nikefootball ', '@nikefootball #freepalestine', '', '', '', '', 'Make your clothes and shoes more affordable.', 'Pal√§stinensische Kinder sollen auch Lauchen.\n\n@saleh_aljafarawi', 'cutie &lt;3', '', 'ÿπŸÜÿØŸä ŸÖÿ≠ÿ™ŸàŸäÿßÿ™ ÿ≤Ÿä ÿØŸä', '', 'keren kalii', '', '', 'Tallas m√°s grandes por favor @nike', '', 'nikeŸÅÿ±ÿ¥ÿ™Ÿá €åÿßÿßŸÑŸáŸá Ÿæ€åÿ±Ÿàÿ≤€å', 'Adorei este v√≠deo, Al√™! Que bom saber que voc√™ tem uma carreira de sucesso e que est√° falando inglesa como uma nativa. Por favor, n√£o some! Beijos,Adriana', 'Parab√©ns pelo trabalho ']</t>
-  </si>
-  <si>
-    <t>['', '', 'Pp', 'Pp', 'O', 'See', 'Cc', '.', 'See', "I'll", 'Ol√°', '#freepalestine', '', '', 'VJ', 'Pinkyblog', '', '', '', '', 'Who?', 'Hi', '', 'FREE PALESTINE ', "ùó™ùó¢ùó•ùóüùóó'ùó¶ ùóßùó•ùóîùó¶ùóõ\n ùóôùó•ùóòùóò ùó£ùóîùóüùóòùó¶ùóßùóúùó°ùóò", 'Sigan me soy nuevo', '', 'GYATTTY', 'Hrvve', '', 'Nikker', 'oh begitu.', 'Ujang pelangkui', 'Nice color', 'Bdj', '€åÿßÿ≥Ÿà', 'Nie', '', '@7.aax_iris  Â∏≠ÂòâÁê™ Iris ', 'ÿ®ŸÉÿßŸÖ', '', 'PPERLA@leeflet', '', '', 'Que foto bonita hein foto bonita hein', '# If you care about education bill and renting bill, gas or electricity bill car bill drop your cash app tag or PayPal mail for blessing it essential', '', '', "Hey there Wham love's you baby Ja ", 'I think its cute when you know that someone is making an effort to make you smile.', 'Mutual subscription, with everyone in a row, I want to gain 1 billion subscribers) ', ' waw', 'Jm', 'Where‚Äôs my order at ??? I ordered my stuff before Halloween and I still haven‚Äôt gotten it', '', 'nice', '', 'Beautiful', '', 'ŸÅ€åŸÑŸÖ ÿ≥ŸàŸæÿ± ÿÆÿßÿ±ÿ¨€å', 'ŸÅ€åŸÑŸÖ ÿ≥ŸàŸæÿ± ÿÆÿßÿ±ÿ¨€å', 'ŸÅ€åŸÑŸÖ ÿ≥ŸàŸæÿ± ÿÆÿßÿ±ÿ¨€å', '@jkaojfwig ŸÅ€åŸÑŸÖ ÿ≥ŸàŸæÿ± ÿÆÿßÿ±ÿ¨€å', '', '', '', 'whats dat?', '', '', 'thats coolllll', 'Nike ', 'keren kalii']</t>
-  </si>
-  <si>
-    <t>['Me af', '@saleh_aljafarawi', 'boykoot', '\n*CODIGOS SAGRADOS NIVEL 1 FREE*\n\nAprende la magia de los c√≥digos sagrados de forma correcta!\n*Aprende  lo q son, como se usan, la forma correcta d activarlos y los s√≠ntomas de la limpieza*\n\n\nhttps://chat.whatsapp.com/KOLmmcqLLlECcpxUSCmLzq\n', 'Xiaomi Redmi 12 128GB 4Ram Vers√£o Global Original\nhttps://shope.ee/A9qPcALYvq', 'Shkk.', '', 'Ÿá', '', '', 'Ÿàÿ≥ÿ® ⁄ØÿßŸäÿ≥ ', '', '', '', '3 persons should send a dm to get free original sneakers', '@robbie_digital88 ', '@ilhomjon_7oo7', '', '@nike  you are children kil ler', 'Where‚Äôs my order ????? I ordered my stuff before Halloween and still haven‚Äôt received it !!!!', '@therealkengriffeyjr ', 'The shadow', 'FREEEE PALESTINE', '', '', '', 'Shut up!!!', '', '', 'info infooo']</t>
-  </si>
-  <si>
-    <t>['Nice', '', 'Hajiya Gabon', '', 'ÿ≥', 'Even though children are slaving away for these shoes, they still kinda fire ', '', 'Uma vida de luto e sorte do Chicago Bulls Isac Motta SA ', 'High', 'Jay Shri Ram', 'Laik', ' and vshh of x', '', '', ' Pero lo malo es cuando se mojan', 'ŸáŸáŸáŸáŸáŸáŸáÿ∫', 'cool', 'Noia', '', '', '', 'Topp', '#Free_Palestine ', '', '', '@FEET__MODELS__', '–ú–Ω–µ –±—ã —Ç–∞–∫ –ø—Ä—ã–≥–∞—Ç—å!', '', '', 'ŸÇÿØÿ¥ ÿßŸÑŸÅŸÑŸàÿ≥', 'nike nike ŸÅÿ±ÿ¥ÿ™Ÿá €åÿßÿßŸÑŸáŸá Ÿæ€åÿ±Ÿàÿ≤€å', ' good looking', '', '', '', 'dayum']</t>
-  </si>
-  <si>
-    <t>['', '', '', 'Gratid√£o', '@nike  you are children ki ll er', '', '', 'Good morning', '', 'Monu', 'Mutual subscription, with everyone in a row, I want to gain 1 billion subscribers) ', '', 'I ‚ò≤ a lot', '', '', '\u200e\u200f\u200f \u200e\u200f\u200f\u200e', 'Love the Nike pros', '', '', '', '', 'Beautiful', 'Wow wow wow', 'Being a professional dancer myself it‚Äôs a dream to be on this page dancing in the Nike brand or modeling  such an inspiration and so beautiful', 'keren kalii', 'Jo√£o jgr6', '', '', '', 'thats coolllll', '', '', '']</t>
-  </si>
-  <si>
-    <t>['', 'real or not', 'Hy', 'These colours ', 'Xs', '@suraj_mandal_0003 =(send pic )', '', 'Kk olha o estilo', 'B0icot N1ike FREE PALESTINE', '', '', '', '', '', 'keren kalii', '', 'Nice ji', 'mine brand', '', '@suheyla_yesil_yasar ◊ë◊®◊ï ◊ñ◊î ◊ú◊ê ◊î◊ì◊í◊ú ◊ï◊†◊ô◊ô◊ß ◊¢◊ù ◊ô◊©◊®◊ê◊ú ◊ô◊ß◊†◊ê◊ô◊ù', '', 'whats dat?', 'info infooo', 'keren kalii', 'Good ', 'Hi jaan hover you mare jaan kia hall ha mari jani', 'Good', '', 'oh begitu.', 'Let me model plze @nike', 'Give it to me free', "Does Naomi know that the HSI scholarship comes at the expense of teachers? Does she and the athletes you sponsor know that you ask teachers to volunteer their time, apply and take a certification course as though they aren't already qualified to evaluate HS essays, and to do that within their holidays? Without any compensation at all? All while Nike grossed $22.3 billion so far in 2023 without a projected December."]</t>
-  </si>
-  <si>
-    <t>['Looking forward to barefoot for adults ', 'ÿ≥ŸÑÿßŸÖ ⁄©ÿ≥€å ÿ™Ÿà ÿß€åÿ±ÿßŸÜ €åÿß ÿ≠ÿßÿ±ÿ¨ ÿß€åÿ±ÿßŸÜ ⁄©ÿ™ŸàŸÜ€å ÿß€åŸÜ ÿ≥ÿ®⁄© Ÿà ÿØÿ≥ÿ™ ÿØŸàÿ≤ ÿ®ÿß ⁄Øÿßÿ±ÿßŸÜÿ™€å ÿ≥Ÿá ÿ≥ÿßŸÑŸá ŸÖ€åÿÆŸàÿßÿØ ÿØÿß€åÿ±⁄©ÿ™ ÿ®ÿØŸá', '', '', 'Lovely baby', '', 'Oooooo lovely ', '', '@pipiedrochmy ◊ë◊®◊ï ◊ñ◊î ◊ú◊ê ◊î◊ì◊í◊ú ◊ï◊†◊ô◊ô◊ß ◊¢◊ù ◊ô◊©◊®◊ê◊ú ◊ß◊†◊ê◊ô◊™', '', '@oscar._cv', '', 'Thanks Nike ', '', '', '–Ø –≤–∞–º –∂–µ–ª–∞—é –ø—Ä–æ—Ü–≤–µ—Ç–∞–Ω–∏—è! –î–∞–∂–µ –±—ç–±–∏–∫–∞–º  —Å–¥–µ–ª–∞–ª–∏ —Ç–∞–∫—É—é –∫—Ä–∞—Å–æ—Ç—É!', 'La matanz@ de ni√±os como el del anuncio, lo financian estas marcas. NO A LAS MARCAS QUE CONTRIBUYEN CON EL GENOCIDIO. ', '', '', '', 'no', '@javierorduna vai estudar petista analfabeto ', '', 'Are these ever getting to Mexico?', '', 'Tiny and cute', '', '', '', '', 'ngl looks fiya', 'nikeŸÅÿ±ÿ¥ÿ™Ÿá €åÿßÿßŸÑŸáŸá Ÿæ€åÿ±Ÿàÿ≤€å', 'Nike be like: Ummm‚Ä¶ it will be 999$ for this sir', 'So cute!', 'Pandabuy?', '@santiago.ramirezchavez', '']</t>
-  </si>
-  <si>
-    <t>['Wasn‚Äôt even the best player on the US team and u call her a legend?', "Isn't she and her team the one's that lost to some 14 yo?", '', '', '', 'Noh', '', 'Woah. It finally happened!', 'oh begitu.', '@laurenmaelt everyone is literally happy', '', 'She sucks', '', 'One in a million ', 'No to her ', '√éconique ', 'finally', 'She was a terrible player the other women on the team were better than her, she was arragont asf', '@low3rdelchapo yes', '@cristofer_.12 te mueres antes de ir a la cancha', '', '@_xavipr_ ', '@luyzkarloz tengo m√°s chances que t√∫ y que ella juntos', 'She bad', 'Loin d √™tre la meilleur, juste honor√© par pure id√©ologie', 'Mid player. Big annoying activist', '@cristofer_.12 est√° claro que lo dices porque eres un mis√≥gino que no soporta ver qu√© una mujer sea mejor jugando f√∫tbol que todos los hombres que t√∫ tanto amas', '@nike drop her soon for the love of GOD', 'Midmidmidmid', 'Parab√©ns pelo trabalho ', 'RZ VickToire ChaTT', '']</t>
-  </si>
-  <si>
-    <t>['', "Free Palestine, boycott, unfollow, don't buy, defund genocide!!", 'Hello', '', '', 'Free Palestine ', 'Can anyone donate crampons? I seriously need this Reach me', '', 'Nikker', 'who dis?', 'Taro.', '', '', '', '', 'AMEN', '', 'Sunil kumar', ' ', '', '', 'makduss??', 'P√©ssimo atendimento ao cliente descaso total, na hora da compra diz que a entrega √© em 3 dias √∫teis o limite √© ultrapassado e mentem dizendo que o endere√ßo est√° errado ou que deixou com algum vizinho, sem passar as infirma√ß√µes da pessoa que foi deixada, descaso total com o consumidor.', 'Stop buying Nike products', 'Follow me I‚Äôll follow you back', '@rebekah_p__ dm me', '@talavera.777', 'No thanks to Nike,,,If not for their support of BLM protesters who burned,, looted and murdered 25 innocent Americans in the summer RIOTS these people would still be alive today..', 'keren kalii', '', 'Children ki ll er', '', 'thats coolllll', 'makduss??', 'who dis?', 'tapi,,', 'oh begitu.', '#FreePalestine ', '#freepalestine  #freepalestine #freepalestine #freepalestine #freepalestine #freepalestine #freepalestine #freepalestine #freepalestine  #freepalestine #freepalestine', 'Comprei um t√™nis da Nike em fevereiro de 2023  por√©m o produto apresentou defeito em novembro 2023 no tecido e a empresa n√£o se responsabiliza pelos produtos fabricados ap√≥s 90 dias. N√£o concordo com essa atitude pois o fabricante n√£o pode negar assist√™ncia ao consumidor.\nPense bem antes de comprar...', 'I‚Äôm the illest', 'Good', 'Do not trust this package shipping company. They take a photo of the door where the service was not requested to say that they delivered it. I requested 5 different orders with shoes and they were not delivered.', 'Brazilian Nike has the HORRIBLE service, does not respond without customers, orders are not delivered, sneakers with defects.... Several complaints on behalf of Black friday ', '', 'Gevorqu', 'I want that jacket.', 'I love you baby Ja  Ja your are my wife Ja ', '', 'Nice footwear']</t>
-  </si>
-  <si>
-    <t>['Hia', '', 'info infooo', 'whats dat?', '', '', 'Bah essa Adidas t√° top', '@nike what is the best sneakers for indoor volleyball? ', "@lovehateparallel Hey there! Let's have you meet us in DM with your Nike Member email, current location, and size. We'd be happy to provide some recs!", '@nike cheers!', 'How much', 'These shoes are great but I think KOBURG footwear brand  is the best it provides good quality product at a reasonable price', 'Explore more fabulous shoes at KOBURG here https://instagram.com/thekoburg?igshid=MzMyNGUyNmU2YQ==', 'This is the best ', 'He is NOT flying', 'whats dat?', 'who dis?', 'info infooo', 'keren kalii', 'Que bonitas', 'makduss??', 'Gostei muito legal pra jogar basquete', '', 'keren kalii', 'whats dat?', 'info infooo', 'Grande chuteira boa', '@nike I‚Äôve dmed you!', '', 'makduss??', 'he is NOT dunking that shi ', '@gladcoitelena check-out the latest collection @sneakers.shoes.gram', 'keren kalii', '', '', '@nike muitos problemas . N√£o consigo comprar dois t√™nis de outro pa√≠s . Que absurdo . Para entregar no mesmo pa√≠s da compra . Nike  precisa melhorar seus sistemas no mundo']</t>
-  </si>
-  <si>
-    <t>['@zo__.i rate an up leh tawh a 1k velin', '@tri_mulyanto43 slide terakhir.. logo nike e ', 'info infooo', 'Use garnachos goal and post it', '', 'what a goal @garnacho7 ', 'Nope', '', '', '', 'Love it', 'Que bonito Nike ', '', '√á√∂p', '@bilalzcelik √ß√∂p', '@bilalzcelik √ß√∂p', 'nikeÿßŸÑŸáŸá Ÿæ€åÿ±Ÿàÿ≤€å', 'Great ', '', '', 'The bestt', '', 'Presio', '', 'who dis?', 'Brazilian Nike has the HORRIBLE service, does not respond without customers, orders are not delivered, sneakers with defects.... Several complaints on behalf of Black friday ', 'I need wan my mam is died', '', 'My standard do not allow me to buy it', "Noticed how messi isn't on the list", '@fxbian._117 ', 'Drop the classic total 90s, Adidas is one step ahead bringing the predators back again ', 'Se eu ganho essa eu choro.', 'Manda uma pra mim por favor n√£o tenho condi√ß√µes', 'Manda uma pra mim por favor n√£o tenho condi√ß√µes', 'We giving out some pairs of sneakers  so you selected among the winner of the year', 'We giving out some pairs of sneakers  so you selected among the winner of the year', '', '', '', 'Ben sevmedim', 'The worse customer service ever!!!!!!!! Yo Nike is a piece of garbage!!!!!!', 'You guys have grip socks', 'Empresa inovadora e l√≠der de mercado, Seus produtos e servi√ßos s√£o de alta qualidade e suas a√ß√µes beneficentes s√£o as melhores, √©  um enorme prazer conhecer a empresa @58grupo_oficial estou muito feliz e\xa0 confiante com o lan√ßamento de suas plataforma  ser√° um sucesso em todo mundo.', '', 'The best']</t>
-  </si>
-  <si>
-    <t>['Shoes ka pta nhi pr animation bhut accha hai ', 'Price of shoes : - the like on this vedio', 'Deber√≠a sacar de todos su modelo talla 2.5Y ', 'Do you have any niku brand shoes ', 'Dayummmm ', '', '', 'Free Palestine', '', 'Wow ', '', 'How much ?', 'Prowler shoes?', '', "NBA : That's Banned", 'Name of the snekars', 'Is this available in South Africa?', '@kuzey_balcik super sneaker form subway surfers bro', 'Pure jute me to machine lagi hai per kaha rakhu ab ', 'New pc for GTA VI', '', 'Rtx 4090', '–ê –Ω–æ–≥–∏ –∫—É–¥–∞ —Å–æ–≤–∞—Ç—å', 'Price?', 'Pandas where way better', '', '', '@noman__official  #freepalestine', '@_18.ishaan Lmao', '@magaredarshan gheun tak ', 'Mixer lagwana baki he bss ', 'Where can I get one of those', '', '–û –º–∞–π –ì–æ–¥', '', '@itshusayn Ÿäÿß ÿµŸÜÿµ ÿØŸá ŸÖŸÇÿßÿ∑ÿπŸá ŸàÿßŸÑŸÑŸá', '', 'Kitne ke hai bc ', '@shreejay_thorat rather gift', '@nike ', 'How much is it @nike', 'Prowler shoe lookin ahh', '@nike', 'Efsanee', '']</t>
-  </si>
-  <si>
-    <t>['who dis?', 'oh begitu.', 'info infooo', 'Hola', 'Get them free at any Nike in California!', 'La primera est√° buenisima', '', 'Congratulations you just won a pair of shoes ', '', 'Nice', "I'm very disappointed, bought my pair 5 months ago and already the sole is peeling also these a little hole starting on the upper material. @nike", "@charleneparfitt That's not what we like to hear! Send us a DM with your order number and Nike Member email. We'll take a look at your options.", 'info infooo', 'info infooo', 'who dis?', '@nike when they arrive in Colombia  ? Thanks', '', '', 'It is available in pakistan or not', "@ch_cheema_7 Plug style code 'DO7625-300' into a search engine to hunt 'em down near you! ", 'tapi,,', 'oh begitu.', 'makduss??', 'keren kalii', 'keren kalii', 'who dis?', '', 'free palestne', 'free palestne', 'Hi', 'who dis?', 'thats coolllll', '@by_zarbouta', '4y6', 'Wow', 'The best sneakers for Basketball', 'upo vizur', '@anton.terzic1911 inbox me for shipping fees', '·ó™.·ó∞. ·ëå·îï @metallicrecord']</t>
-  </si>
-  <si>
-    <t>['@kwheeler78 email emcop58@gmail.com for early order', '@polushkinnikola email emcop58@gmail.com for early order', '@owomugishaamosbarangi email emcop58@gmail.com for early order', 'Amogus', '', '', 'how much is this!', 'I just wanted one of these\n', 'How much is this?', '', 'Nice editing def. gonna buy it', 'How much does the machine cost', '', '@bennett.j_dykstra ', '', 'Are these products for Metaverse? Right?', '', '', 'Garage band song', 'Editor needs an Oscar', '', 'Super editing', "Bro idc what the world is talking about but pls correct my grammar why is it you stepped into the future and not you've stepped into the future", '@not.zerref ok', '@cjax079 well you can get the dunks of any type from us we are the new Nike promoters and you can check it out', "Time travel glitch detected!  Welcome to the future  But in all seriousness, it's amazing here.", 'When are we restocking white on white jordan 1 highs? @nike', 'How did they do that?????', 'Omg   is this future', 'South Korea, 9.5 US size', '@nike South Korea, 9.5 size plz', 'Those black ons is ', 'Hey @nike why in nike fr we have 20 % discount and in portugal do not?', 'Wallpaper tho', 'ÿ¨ÿßŸÖÿØŸá ŸàÿßŸÑŸÑŸá', '', '', '@el_flakiitoo27_ Congratulations you won a sneakers  giveaways inbox me', '@imeld4kar Congratulations you won a sneakers  giveaways inbox me']</t>
-  </si>
-  <si>
-    <t>['thats coolllll', 'thats coolllll', 'keren kalii', 'tapi,,', 'whats dat?', 'whats dat?', 'thats coolllll', 'thats coolllll', 'keren kalii', 'tapi,,', 'Thanksgiving', 'NikeNiKE ŸÅÿ±ÿ¥ÿ™Ÿá €åÿßÿßŸÑŸáŸá Ÿæ€åÿ±Ÿàÿ≤€å', 'thats coolllll', 'keren kalii', 'makduss??', 'tapi,,', 'thats coolllll', 'makduss??', 'oh begitu.', 'thats coolllll', 'thats coolllll', '@elisadia__ you can try that style', 'who dis?', 'tapi,,', 'thats coolllll', 'keren kalii', 'tapi,,', 'keren kalii', 'thats coolllll', '–ö—Ä–∞—Å–∏–≤–∞—è –æ–±—É–≤—å', 'Amazing', '', '', 'Nike is beast choice', '', 'We are the new promoters of Nike product just follow and get more of our product we are selling out our new product for cheap price like $300,$250,$120 we sell like this cuz we wanna sell out our new product', '@hsukw.0 yes you can check it out in here we are the new Nike promoters ask for any Nike type okey for cheap price and pay on delivery', 'That‚Äôs definitely Sabrina! Idk who y‚Äôall on here naming lmao.', '', '', "That's cool", '', '']</t>
-  </si>
-  <si>
-    <t>['Will never order from Nike', 'Such a bad experience, other brands have huge distribution network', 'who dis?', 'whats dat?', 'whats dat?', 'makduss??', 'thats coolllll', "that's so good to me", 'makduss??', '@macoi07 the shoes!!! ', 'i‚Äôm a foster parent and i want to get this for my foster son, he‚Äôs only month now but he will definitely need these soon ', 'Good', '', '', '', 'keren kalii', 'keren kalii', 'oh begitu.', 'keren kalii', 'whats dat?', 'whats dat?', 'makduss??', 'thats coolllll', 'whats dat?', 'tapi,,', '', 'Great video', 'Jdygvsh', 'Pp whrhjsb', 'Kditvdh', 'When will there be another drop', 'Stop using @ups they suck and I never get shipments on time!!', '\u200e', '', '', '', '', 'Great idea expanding the market', '', '']</t>
-  </si>
-  <si>
-    <t>['', '', '', 'these are so cute! my brother would love these!', 'Ima call police.', 'My Broski ', '', 'Nice ', 'tapi,,', 'who dis?', 'Pierdol siƒô', 'info infooo', 'who dis?', 'tapi,,', 'tapi,,', '', 'im edging', '', 'Hh', 'Where is broski', 'what is bro training for', '@matiasmatias398 siii', 'Cite kid', 'Wow', '', 'Ainda n√£o conheceram a @58grupo_oficial? que est√° bombando com as plataformas, sem d√∫vidas √© a melhor empresa que est√° sempre inovando e trazendo benef√≠cios para seus usu√°rios, muito feliz de conhecer uma empresa l√≠der que realiza v√°rias a√ß√µes beneficentes.', '', 'Cute', '', '–ê—Ö–∞—Ö–∞—Ö–∞—Ö–∞—Ö –Ω—î–≥—Ä', 'Smash', 'K lady', '', 'Ainda n√£o conheceram a @58grupo_oficial? que est√° bombando com as plataformas, sem d√∫vidas √© a melhor empresa que est√° sempre inovando e trazendo benef√≠cios para seus usu√°rios, muito feliz de conhecer uma empresa l√≠der que realiza v√°rias a√ß√µes beneficentes.', 'Gyatt', 'Stawhp', '', '']</t>
-  </si>
-  <si>
-    <t>['Dice Gore', '', '369ttxd0929', 'I think Nike really needs a good photographer,', 'Ìï≠ÏÉÅ Ïûò Î≥¥Í≥† ÏûàÏñ¥Ïö© „Öé„ÖÖ„Öé', 'Very attractive and amazing ', 'Power ', 'Ja your are my wife Ja ', 'Ja your are my wife Ja ', '', 'Que porcaria o atendimento de voc√™s no Brasil! Comprei uma camisa do Corinthians para dar de presente para meu pai dia 14/11, era pra ter sido entregue at√© dia 21/11. O pedido nao veio, constava que como destinat√°rio ausente sendo que eu estava de home office aguardando a entrega. E at√© agora n√£o tenho o produto e nem o estorno da compra. Voc√™s s√£o p√©ssimos! Pagamos bem caro pelo produto e o atendimento que oferecem √© ridiculo! Eu n√£o quero vale trocas, nao vou comprar nunca mais com voc√™s!', 'Sushil Kumar star', 'Greggs!', 'Running with the Nike, working too. Perfect colection ', '', '', '', 'ÿ™ŸÑÿ®ÿ≥ 59 Ÿäÿ±ÿ®ŸÉ', '', '', '', '', 'fai', 'Good morning', 'Nike ', ' tr√™s linda maravilhosa mulheres', 'Very good', 'who dis?', '', 'The @nike shoes are very flexible and involves great durability that implements good running and also in terms of exercise.', '', '', 'Info', '', 'Nike me patrocina', '@katelemberg yes it is but we also have Nike that has been is store for soo long and we wanna sell them out for cheap price buy one and get one for free', '@katelemberg and it is pay on delivery', 'ŸÉŸÖ ÿ≥ÿπÿ±', '']</t>
-  </si>
-  <si>
-    <t>['Good morning', '@hddk_shop', 'ÿ≥ŸÑÿßŸÖ', '', '', 'nice !', '', '', 'Hi', 'ÿ™ÿ≤ŸÜÿ™ÿ®ÿ™ÿ™ÿ®ÿ™ÿ™ÿ™⁄òÿØŸÜ', 'Hbnxhyd', '', '', '', '\u200d', '', '', 'Parab√©ns pelo trabalho ', '', 'Hey', 'Hay', '', 'i gyat soemthing in my eye', '', '', '@lionesses ', '@rukesh1012 ', '', '', 'FREE PALESTINE ', 'wow', 'wow', 'foarte frumos !', 'Good job ', '', 'ÿßŸÜÿß ŸÖŸÇÿßÿ∑ÿπŸÉŸÖ ŸÑÿß ÿ™ÿ∑ŸÑÿπŸàŸÑŸä ŸÖÿ±ÿ© ÿ´ÿßŸÜŸäÿ©', 'Tar Heel strong.', '@inconstantneedoffood you were dropped as a baby ', '@iwell46 you are adopted ', 'until a boy who calls himself a girl joins the team', 'only nike', 'Go ladies! Especially my kinfolk ']</t>
-  </si>
-  <si>
-    <t>['trying to get a reply out of nike', '', 'strength, assertiveness, discipline', '', '', '', '', 'Nike is canceled. Stop supporting the I.0.F.', 'Love love love these. So happy that they came back in my size.@nike', '', '', 'JFDI!!!!!!!', '', '', '', 'Âéª1', '', '', '', '', 'Parab√©ns pelo trabalho ', ' ', '', 'Redrop these!!', "Let's go @robbie_digital88", "Y'all forgot, @bojackson knows cycling and biking", '@bobikesbama', '@bobikesbama', 'I going back the dag on earth to grab yours now found me yours bank account i got to work king', 'Grzuv y', '@nike como voc√™s pegarem minha ideia do filme sobre a  vida do Michel jordan  e eu n√£o recebi por isso , psicopata', '@nike como voc√™s pegarem minha ideia do filme sobre a  vida do Michel jordan  e eu n√£o recebi por isso , psicopata', 'Bionic Bo', 'Bo Jackson was a one of a kind athlete #oneofakind', 'Can nike of THEN push forward the Nike of NOW??', 'good day', '', 'Go Bo ', 'He is so great ', '', '', 'Bo knows!!!!!', 'Bo was that dude ']</t>
-  </si>
-  <si>
-    <t>['@doubled267 could have zoomed out still ', '', '', '@pack.jainter14 they beat yall', '', 'Dreams do come true when you sell yourself and dress up as a women.', '', 'Yup He hired them too so its on him.', 'Watch someone still hate in the comments. Just take the message and keep it moving.', '@sizzle456 facts', '@2black2funny This season for Bill B. in new england yup this season has been a bad coaching.', '', '@adam.ploskonka and ? It‚Äôs still better than 1-11 he is creating a culture in boulder stop hating', 'Say LESS', '', '', "@ronaldewarnerjr he demoted the OC and the same people that sound like you said it was in bad taste... we get it, y'all only WANT to blame PRIME. y'all don't want to see HIM and his sons to succeed. the writing's on the wall.", "@ronaldewarnerjr he demoted the OC and the same people that sound like you said it was in bad taste... we get it, y'all only WANT to blame PRIME. y'all don't want to see HIM and his sons to succeed. the writing's on the wall.", '@joshuathepost but he‚Äôs a coach that makes a difference in young athletes lives. Many adults can‚Äôt even connect with young Americans. See this season was an improvement for the Buffs program. You didn‚Äôt listen to anything he just said.', '@brutusosu3 it was better than last season. So you‚Äôre wanting a man to completely turn a troubled program around in one season? That not how it works.', 'Sound like a @jalenhurts quote ', '', 'this makes sense because I could never sleep too long. I hit too much to accomplish ', '@airdwele_pv culture of disrespect and individualism.', '@xfactorunleashed another Dieon fan not a Colorado fan ', 'It‚Äôs not just about football it‚Äôs about LIFE ITSELF ', 'A man that‚Äôs had a lifetime of success and a season of failure is being judged in the comments by people who can‚Äôt even get a promotion. Make it make sense', 'Corny', '@nkgalli13 apparently you do if you got hurt enough to reply', 'Good jawn ', '@airdwele_pv Stop repeating regurgitated information ', '@bmmgmusicgroup @queenkiam @romdoll @just.me.em @mars3023_  dreams', '', 'A lot of hating on Coach prime in these comment when some of y‚Äôall can‚Äôt even coach a little league team lol @sg4evr  thanks bruh haha', '10-2  I know college football better than that. Come on who you kidding', 'Thank you coach!! ', '', 'u can‚Äôt even give a good quote ur self.Lol', 'OVERRATED,,', '', '', 'all that talking before the product granny said dont put the cart before the horse u niccas doing much of that hype', 'Getting old an boring Deion', '@cwagon58 but you‚Äôre still here.']</t>
-  </si>
-  <si>
-    <t>['Checks over stripes', '', 'kobe would be proud', '', 'good luck', '@mambakicks.la adidas low key makes more "kobes" than nike ', 'Give your all to the game and the game will bless you Just Do It Nike', 'ŸÜÿß€å⁄©€å ÿ™Ÿà ÿ¨ÿß⁄©ŸÅÿ¥€å ŸÖÿßŸáŸÖ ŸÖŸàÿ¨ŸàÿØŸá ', '', 'Well deserved', '', '', '', '', 'Nice', '', '', '', 'He dusty and about to retire anyway', '', '', 'Legendary ', 'Good ', 'Yeaaaaasir Snipe ', 'Crazy stat that he became top 10 all time scorer before having a ring ', '@michaelmaloneyjr cry', '', 'Everything is said here', '', ' Weldon  big up', '', '', "We're gonna make it!!", 'Shut up please. Man looking like he‚Äôs 60 hating this much. Stop discrediting his hard work and go sit down somewhere. I don‚Äôt play about @easymoneysniper', 'It‚Äôs teams, not tems. Learn to spell correctly if you‚Äôre gonna hate', 'Hait?', '', 'Dig', 'Easy Money Got Us', '.']</t>
   </si>
 </sst>
 </file>
@@ -1285,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A164" sqref="A138:XFD164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2387,221 +2306,86 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A138" s="2">
-        <v>45225</v>
-      </c>
-      <c r="B138" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A139" s="2">
-        <v>45226</v>
-      </c>
-      <c r="B139" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A140" s="2">
-        <v>45227</v>
-      </c>
-      <c r="B140" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="2">
-        <v>45229</v>
-      </c>
-      <c r="B141" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142" s="2">
-        <v>45230</v>
-      </c>
-      <c r="B142" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A143" s="2">
-        <v>45231</v>
-      </c>
-      <c r="B143" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A144" s="2">
-        <v>45232</v>
-      </c>
-      <c r="B144" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A145" s="2">
-        <v>45234</v>
-      </c>
-      <c r="B145" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="2">
-        <v>45236</v>
-      </c>
-      <c r="B146" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A147" s="2">
-        <v>45238</v>
-      </c>
-      <c r="B147" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A148" s="2">
-        <v>45239</v>
-      </c>
-      <c r="B148" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A149" s="2">
-        <v>45240</v>
-      </c>
-      <c r="B149" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A150" s="2">
-        <v>45241</v>
-      </c>
-      <c r="B150" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A151" s="2">
-        <v>45243</v>
-      </c>
-      <c r="B151" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A152" s="2">
-        <v>45244</v>
-      </c>
-      <c r="B152" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="2">
-        <v>45246</v>
-      </c>
-      <c r="B153" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>45247</v>
-      </c>
-      <c r="B154" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A155" s="2">
-        <v>45248</v>
-      </c>
-      <c r="B155" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A156" s="2">
-        <v>45250</v>
-      </c>
-      <c r="B156" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
-        <v>45251</v>
-      </c>
-      <c r="B157" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A158" s="2">
-        <v>45253</v>
-      </c>
-      <c r="B158" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A159" s="2">
-        <v>45254</v>
-      </c>
-      <c r="B159" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>45257</v>
-      </c>
-      <c r="B160" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="2">
-        <v>45258</v>
-      </c>
-      <c r="B161" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A162" s="2">
-        <v>45259</v>
-      </c>
-      <c r="B162" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A163" s="2">
-        <v>45260</v>
-      </c>
-      <c r="B163" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A164" s="2">
-        <v>45262</v>
-      </c>
-      <c r="B164" t="s">
-        <v>299</v>
-      </c>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="2"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="2"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="2"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="2"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="2"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="2"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="2"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="2"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="2"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" s="2"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" s="2"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B137">
